--- a/WorkingFolder/Tables/macro_corr_educ_gr.xlsx
+++ b/WorkingFolder/Tables/macro_corr_educ_gr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>mean:incvar for low</t>
   </si>
@@ -34,106 +34,109 @@
     <t>mean:incskew for high</t>
   </si>
   <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
     <t>-0.08</t>
   </si>
   <si>
-    <t>-0.09</t>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.2*</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>-0.16</t>
   </si>
   <si>
     <t>-0.05</t>
   </si>
   <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.23**</t>
-  </si>
-  <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.19*</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
     <t>0.05</t>
   </si>
   <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.14</t>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.18</t>
   </si>
   <si>
     <t>-0.07</t>
   </si>
   <si>
-    <t>-0.03</t>
-  </si>
-  <si>
     <t>0.09</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.06</t>
+    <t>-0.02</t>
   </si>
 </sst>
 </file>
@@ -528,16 +531,16 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -545,22 +548,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -568,22 +571,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -591,22 +594,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -614,19 +617,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -637,22 +640,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -660,22 +663,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -686,19 +689,19 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
         <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -709,19 +712,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -732,19 +735,19 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
         <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -755,19 +758,19 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -778,19 +781,19 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
